--- a/exp_apfd/result/apfd.xlsx
+++ b/exp_apfd/result/apfd.xlsx
@@ -9,13 +9,19 @@
   <sheets>
     <sheet name="mnist_LeNet1" sheetId="1" r:id="rId1"/>
     <sheet name="mnist_LeNet5" sheetId="2" r:id="rId2"/>
+    <sheet name="cifar_resNet20" sheetId="3" r:id="rId3"/>
+    <sheet name="cifar_vgg16" sheetId="4" r:id="rId4"/>
+    <sheet name="fashion_LeNet1" sheetId="5" r:id="rId5"/>
+    <sheet name="fashion_resNet20" sheetId="6" r:id="rId6"/>
+    <sheet name="svhn_LeNet5" sheetId="7" r:id="rId7"/>
+    <sheet name="svhn_vgg16" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="516">
   <si>
     <t>Original Tests</t>
   </si>
@@ -194,10 +200,10 @@
     <t>0.000</t>
   </si>
   <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.648</t>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.638</t>
   </si>
   <si>
     <t>0.835</t>
@@ -293,190 +299,1276 @@
     <t>25721.0</t>
   </si>
   <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>8814</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1177.0</t>
+  </si>
+  <si>
+    <t>34045.0</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>0.340</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>4738.0</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>830.0</t>
+  </si>
+  <si>
+    <t>715.0</t>
+  </si>
+  <si>
+    <t>759.0</t>
+  </si>
+  <si>
+    <t>1198.0</t>
+  </si>
+  <si>
+    <t>1065.0</t>
+  </si>
+  <si>
+    <t>1109.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>2964.0</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>0.884</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>197.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>351.0</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>398.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>462.0</t>
+  </si>
+  <si>
+    <t>0.440</t>
+  </si>
+  <si>
+    <t>303.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>1366.0</t>
+  </si>
+  <si>
+    <t>1212.0</t>
+  </si>
+  <si>
+    <t>1278.0</t>
+  </si>
+  <si>
+    <t>3226.0</t>
+  </si>
+  <si>
+    <t>1675.0</t>
+  </si>
+  <si>
+    <t>2724.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>349.0</t>
+  </si>
+  <si>
+    <t>386.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>14299.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>174.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>316.0</t>
+  </si>
+  <si>
+    <t>470.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>20920.0</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.120</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.879</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.190</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>447.0</t>
+  </si>
+  <si>
+    <t>274.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>296.0</t>
+  </si>
+  <si>
+    <t>223.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>612.0</t>
+  </si>
+  <si>
+    <t>904.0</t>
+  </si>
+  <si>
+    <t>944.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>4052</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>3699.0</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>5553</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>917.0</t>
+  </si>
+  <si>
+    <t>29672.0</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
     <t>0.511</t>
   </si>
   <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.918</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>8814</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1177.0</t>
-  </si>
-  <si>
-    <t>34045.0</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.984</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>974</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>0.340</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>4738.0</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.992</t>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>581.0</t>
+  </si>
+  <si>
+    <t>471.0</t>
+  </si>
+  <si>
+    <t>525.0</t>
+  </si>
+  <si>
+    <t>921.0</t>
+  </si>
+  <si>
+    <t>793.0</t>
+  </si>
+  <si>
+    <t>855.0</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>261.0</t>
+  </si>
+  <si>
+    <t>299.0</t>
+  </si>
+  <si>
+    <t>2760.0</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>253.0</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>302.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>1002.0</t>
+  </si>
+  <si>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>894.0</t>
+  </si>
+  <si>
+    <t>1401.0</t>
+  </si>
+  <si>
+    <t>1236.0</t>
+  </si>
+  <si>
+    <t>1309.0</t>
+  </si>
+  <si>
+    <t>575.0</t>
+  </si>
+  <si>
+    <t>635.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>12800.0</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>0.500</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>3053.0</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>205.0</t>
+  </si>
+  <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>202.0</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>15480.0</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>625.0</t>
+  </si>
+  <si>
+    <t>393.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>385.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>766.0</t>
+  </si>
+  <si>
+    <t>1194.0</t>
+  </si>
+  <si>
+    <t>1332.0</t>
+  </si>
+  <si>
+    <t>0.331</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>251.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>598.0</t>
+  </si>
+  <si>
+    <t>463.0</t>
+  </si>
+  <si>
+    <t>541.0</t>
+  </si>
+  <si>
+    <t>426.0</t>
+  </si>
+  <si>
+    <t>354.0</t>
+  </si>
+  <si>
+    <t>1175.0</t>
+  </si>
+  <si>
+    <t>1726.0</t>
+  </si>
+  <si>
+    <t>1876.0</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.979</t>
   </si>
 </sst>
 </file>
@@ -1765,13 +2857,13 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -1783,13 +2875,13 @@
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
         <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1810,7 +2902,7 @@
         <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
         <v>84</v>
@@ -1819,19 +2911,19 @@
         <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
         <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
         <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1851,31 +2943,31 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1893,13 +2985,13 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -1908,16 +3000,16 @@
         <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1935,13 +3027,13 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
         <v>74</v>
@@ -1950,16 +3042,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1979,31 +3071,31 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2021,13 +3113,13 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
         <v>75</v>
@@ -2036,16 +3128,16 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s">
         <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2063,13 +3155,13 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
@@ -2078,16 +3170,16 @@
         <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2113,13 +3205,13 @@
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
@@ -2128,10 +3220,10 @@
         <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2155,13 +3247,13 @@
         <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
@@ -2170,10 +3262,10 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2197,13 +3289,13 @@
         <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
@@ -2212,10 +3304,10 @@
         <v>35</v>
       </c>
       <c r="M15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" t="s">
         <v>148</v>
-      </c>
-      <c r="N15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2241,13 +3333,13 @@
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
         <v>35</v>
@@ -2259,7 +3351,7 @@
         <v>89</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2282,16 +3374,16 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s">
         <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s">
         <v>35</v>
@@ -2300,10 +3392,10 @@
         <v>35</v>
       </c>
       <c r="M17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2326,10 +3418,10 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
         <v>34</v>
@@ -2412,10 +3504,10 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -2433,7 +3525,4873 @@
         <v>44</v>
       </c>
       <c r="N20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
         <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" t="s">
+        <v>210</v>
+      </c>
+      <c r="M6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>217</v>
+      </c>
+      <c r="N11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>218</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>219</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>220</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>222</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>223</v>
+      </c>
+      <c r="N19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>224</v>
+      </c>
+      <c r="N20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M5" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" t="s">
+        <v>287</v>
+      </c>
+      <c r="N6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M7" t="s">
+        <v>288</v>
+      </c>
+      <c r="N7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" t="s">
+        <v>284</v>
+      </c>
+      <c r="M9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M10" t="s">
+        <v>291</v>
+      </c>
+      <c r="N10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11" t="s">
+        <v>292</v>
+      </c>
+      <c r="N11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M12" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>294</v>
+      </c>
+      <c r="N13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>295</v>
+      </c>
+      <c r="N14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>296</v>
+      </c>
+      <c r="N15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>297</v>
+      </c>
+      <c r="N16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
+        <v>326</v>
+      </c>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M7" t="s">
+        <v>328</v>
+      </c>
+      <c r="N7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>326</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>326</v>
+      </c>
+      <c r="M10" t="s">
+        <v>328</v>
+      </c>
+      <c r="N10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>326</v>
+      </c>
+      <c r="M11" t="s">
+        <v>328</v>
+      </c>
+      <c r="N11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" t="s">
+        <v>326</v>
+      </c>
+      <c r="M12" t="s">
+        <v>328</v>
+      </c>
+      <c r="N12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>328</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" t="s">
+        <v>318</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>329</v>
+      </c>
+      <c r="N17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>322</v>
+      </c>
+      <c r="J18" t="s">
+        <v>325</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>330</v>
+      </c>
+      <c r="N18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>376</v>
+      </c>
+      <c r="L5" t="s">
+        <v>346</v>
+      </c>
+      <c r="M5" t="s">
+        <v>385</v>
+      </c>
+      <c r="N5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>377</v>
+      </c>
+      <c r="L6" t="s">
+        <v>383</v>
+      </c>
+      <c r="M6" t="s">
+        <v>386</v>
+      </c>
+      <c r="N6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" t="s">
+        <v>361</v>
+      </c>
+      <c r="M8" t="s">
+        <v>388</v>
+      </c>
+      <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>371</v>
+      </c>
+      <c r="K9" t="s">
+        <v>379</v>
+      </c>
+      <c r="L9" t="s">
+        <v>361</v>
+      </c>
+      <c r="M9" t="s">
+        <v>389</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L10" t="s">
+        <v>384</v>
+      </c>
+      <c r="M10" t="s">
+        <v>390</v>
+      </c>
+      <c r="N10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" t="s">
+        <v>381</v>
+      </c>
+      <c r="L11" t="s">
+        <v>361</v>
+      </c>
+      <c r="M11" t="s">
+        <v>391</v>
+      </c>
+      <c r="N11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>372</v>
+      </c>
+      <c r="K12" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" t="s">
+        <v>361</v>
+      </c>
+      <c r="M12" t="s">
+        <v>392</v>
+      </c>
+      <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" t="s">
+        <v>362</v>
+      </c>
+      <c r="I13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>353</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" t="s">
+        <v>367</v>
+      </c>
+      <c r="J14" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>393</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>394</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>364</v>
+      </c>
+      <c r="I16" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" t="s">
+        <v>374</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>395</v>
+      </c>
+      <c r="N16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>360</v>
+      </c>
+      <c r="H19" t="s">
+        <v>365</v>
+      </c>
+      <c r="I19" t="s">
+        <v>369</v>
+      </c>
+      <c r="J19" t="s">
+        <v>375</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>396</v>
+      </c>
+      <c r="N19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>366</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" t="s">
+        <v>429</v>
+      </c>
+      <c r="M5" t="s">
+        <v>430</v>
+      </c>
+      <c r="N5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I7" t="s">
+        <v>417</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" t="s">
+        <v>432</v>
+      </c>
+      <c r="N7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H8" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>422</v>
+      </c>
+      <c r="K8" t="s">
+        <v>426</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" t="s">
+        <v>433</v>
+      </c>
+      <c r="N8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" t="s">
+        <v>403</v>
+      </c>
+      <c r="I9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" t="s">
+        <v>423</v>
+      </c>
+      <c r="K9" t="s">
+        <v>426</v>
+      </c>
+      <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" t="s">
+        <v>434</v>
+      </c>
+      <c r="N9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I10" t="s">
+        <v>373</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s">
+        <v>435</v>
+      </c>
+      <c r="N10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" t="s">
+        <v>405</v>
+      </c>
+      <c r="I11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K11" t="s">
+        <v>427</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s">
+        <v>436</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I12" t="s">
+        <v>419</v>
+      </c>
+      <c r="J12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K12" t="s">
+        <v>428</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="s">
+        <v>437</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" t="s">
+        <v>362</v>
+      </c>
+      <c r="I13" t="s">
+        <v>420</v>
+      </c>
+      <c r="J13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>378</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" t="s">
+        <v>413</v>
+      </c>
+      <c r="I14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>335</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>438</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J15" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>439</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" t="s">
+        <v>414</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>424</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>440</v>
+      </c>
+      <c r="N16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19" t="s">
+        <v>415</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
+        <v>425</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>441</v>
+      </c>
+      <c r="N19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>416</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>462</v>
+      </c>
+      <c r="H5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" t="s">
+        <v>472</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>479</v>
+      </c>
+      <c r="K6" t="s">
+        <v>489</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>500</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H7" t="s">
+        <v>461</v>
+      </c>
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M7" t="s">
+        <v>501</v>
+      </c>
+      <c r="N7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" t="s">
+        <v>465</v>
+      </c>
+      <c r="H8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>481</v>
+      </c>
+      <c r="K8" t="s">
+        <v>491</v>
+      </c>
+      <c r="L8" t="s">
+        <v>497</v>
+      </c>
+      <c r="M8" t="s">
+        <v>502</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>482</v>
+      </c>
+      <c r="K9" t="s">
+        <v>492</v>
+      </c>
+      <c r="L9" t="s">
+        <v>498</v>
+      </c>
+      <c r="M9" t="s">
+        <v>503</v>
+      </c>
+      <c r="N9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" t="s">
+        <v>467</v>
+      </c>
+      <c r="H10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" t="s">
+        <v>483</v>
+      </c>
+      <c r="K10" t="s">
+        <v>493</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>504</v>
+      </c>
+      <c r="N10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>481</v>
+      </c>
+      <c r="K11" t="s">
+        <v>494</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>505</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E12" t="s">
+        <v>459</v>
+      </c>
+      <c r="F12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" t="s">
+        <v>468</v>
+      </c>
+      <c r="H12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>484</v>
+      </c>
+      <c r="K12" t="s">
+        <v>494</v>
+      </c>
+      <c r="L12" t="s">
+        <v>498</v>
+      </c>
+      <c r="M12" t="s">
+        <v>506</v>
+      </c>
+      <c r="N12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I13" t="s">
+        <v>371</v>
+      </c>
+      <c r="J13" t="s">
+        <v>485</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>507</v>
+      </c>
+      <c r="N13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>470</v>
+      </c>
+      <c r="H14" t="s">
+        <v>474</v>
+      </c>
+      <c r="I14" t="s">
+        <v>478</v>
+      </c>
+      <c r="J14" t="s">
+        <v>486</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>508</v>
+      </c>
+      <c r="N14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>471</v>
+      </c>
+      <c r="H15" t="s">
+        <v>475</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>487</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>509</v>
+      </c>
+      <c r="N15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>476</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>488</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>477</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
